--- a/biology/Médecine/Auguste_Mounié/Auguste_Mounié.xlsx
+++ b/biology/Médecine/Auguste_Mounié/Auguste_Mounié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Mouni%C3%A9</t>
+          <t>Auguste_Mounié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Auguste Mounié, né Rose Joseph Auguste Mounié, le 4 octobre 1876 à Roumengoux (Ariège), mort le 3 décembre 1940 dans son bureau à la mairie d'Antony (Seine), est un pharmacien et homme politique français, membre du parti radical-socialiste et chevalier de la Légion d'honneur (6 août 1919).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Mouni%C3%A9</t>
+          <t>Auguste_Mounié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,24 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Auguste Mounié est le fils de Noël Mounié (instituteur, né en 1840 de Baptiste Robert Mounié, agriculteur) et de Marie Reine Joséphine Robert.
-Diplômes
-De brillantes études au lycée de Foix lui donnent accès à des études supérieures en pharmacie à Paris[1]. Pharmacien de première classe en 1898, Auguste Mounié est docteur en pharmacie en 1902.
-Carrière professionnelle
-Auguste Mounié s'installe en 1902 à Antony, il est également pharmacien de l'infirmerie centrale de la prison de Fresnes.
-Engagement politique
-1908 : élu conseiller municipal radical socialiste[1]
-1912 : élu maire en 1912, fauteuil qu'il occupa jusqu'à sa mort en 1940
-1919 : élu conseiller général, fauteuil qu'il occupa jusqu'en 1929
-9 janvier 1927 : élu sénateur de la Seine
-1930 : nommé sous-secrétaire d'État auprès du ministre du Travail et de la Prévoyance[1]
-20 octobre 1935[2] : réélu sénateur de la Seine
-1939 : nommé questeur au Sénat[1]
-L'essentiel de son énergie est consacrée au développement d'Antony qui passe, sous sa mandature, de 3 000 à 22 000 habitants. Il s'intéresse essentiellement aux mal-lotis, ce qui lui vaut le 10 mars 1935 le titre de « père des mal-lotis » dans le journal Le Quotidien.
-Mort et hommage
-Il est inhumé au Cimetière d'Antony.
-Le conseil municipal d'Antony, réuni le 2 février 1941, décide d'attribuer son nom à la place des Écoles, place principale de la commune. La rue Auguste-Mounié lui est également dédiée.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Mounié est le fils de Noël Mounié (instituteur, né en 1840 de Baptiste Robert Mounié, agriculteur) et de Marie Reine Joséphine Robert.
 </t>
         </is>
       </c>
@@ -542,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Mouni%C3%A9</t>
+          <t>Auguste_Mounié</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,10 +558,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diplômes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De brillantes études au lycée de Foix lui donnent accès à des études supérieures en pharmacie à Paris. Pharmacien de première classe en 1898, Auguste Mounié est docteur en pharmacie en 1902.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auguste_Mounié</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Mouni%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Mounié s'installe en 1902 à Antony, il est également pharmacien de l'infirmerie centrale de la prison de Fresnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Auguste_Mounié</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Mouni%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Engagement politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1908 : élu conseiller municipal radical socialiste
+1912 : élu maire en 1912, fauteuil qu'il occupa jusqu'à sa mort en 1940
+1919 : élu conseiller général, fauteuil qu'il occupa jusqu'en 1929
+9 janvier 1927 : élu sénateur de la Seine
+1930 : nommé sous-secrétaire d'État auprès du ministre du Travail et de la Prévoyance
+20 octobre 1935 : réélu sénateur de la Seine
+1939 : nommé questeur au Sénat
+L'essentiel de son énergie est consacrée au développement d'Antony qui passe, sous sa mandature, de 3 000 à 22 000 habitants. Il s'intéresse essentiellement aux mal-lotis, ce qui lui vaut le 10 mars 1935 le titre de « père des mal-lotis » dans le journal Le Quotidien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Auguste_Mounié</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Mouni%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mort et hommage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inhumé au Cimetière d'Antony.
+Le conseil municipal d'Antony, réuni le 2 février 1941, décide d'attribuer son nom à la place des Écoles, place principale de la commune. La rue Auguste-Mounié lui est également dédiée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Auguste_Mounié</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auguste_Mouni%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressource relative à la vie publique : Sénat  
